--- a/public/data/lime/lime_table_mozambique.xlsx
+++ b/public/data/lime/lime_table_mozambique.xlsx
@@ -1606,16 +1606,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.24</v>
+        <v>0.26</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>2.72</v>
+        <v>1.99</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1653,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.16</v>
+        <v>0.47</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.32</v>
+        <v>0.42</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>3.02</v>
+        <v>1.76</v>
       </c>
       <c r="E5" t="n">
-        <v>1.42</v>
+        <v>0.02</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.31</v>
+        <v>0.63</v>
       </c>
       <c r="K5" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.37</v>
+        <v>0.53</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1870,34 +1870,34 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>6.65</v>
+        <v>0.96</v>
       </c>
       <c r="E8" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.24</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.24</v>
+        <v>0.63</v>
       </c>
       <c r="K8" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.15</v>
+        <v>0.38</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>1.54</v>
+        <v>0.97</v>
       </c>
       <c r="E10" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.39</v>
+        <v>0.74</v>
       </c>
       <c r="K10" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.36</v>
+        <v>0.69</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>2.72</v>
+        <v>1.99</v>
       </c>
       <c r="E12" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2076,16 +2076,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>0.33</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         <v>99</v>
       </c>
       <c r="D13" t="n">
-        <v>3.64</v>
+        <v>2.88</v>
       </c>
       <c r="E13" t="n">
-        <v>1.92</v>
+        <v>0.26</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2123,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.27</v>
+        <v>0.65</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2152,37 +2152,37 @@
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>1.66</v>
+        <v>1.04</v>
       </c>
       <c r="E14" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.15</v>
+        <v>1.42</v>
       </c>
       <c r="K14" t="n">
-        <v>0.77</v>
+        <v>0.29</v>
       </c>
       <c r="L14" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="M14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2199,34 +2199,34 @@
         <v>101</v>
       </c>
       <c r="D15" t="n">
-        <v>5.07</v>
+        <v>0.89</v>
       </c>
       <c r="E15" t="n">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.22</v>
+        <v>0.4</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.59</v>
+        <v>0.76</v>
       </c>
       <c r="K16" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2293,37 +2293,37 @@
         <v>104</v>
       </c>
       <c r="D17" t="n">
-        <v>4.02</v>
+        <v>3.27</v>
       </c>
       <c r="E17" t="n">
-        <v>2.88</v>
+        <v>1.33</v>
       </c>
       <c r="F17" t="n">
-        <v>1.56</v>
+        <v>0.15</v>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.05</v>
+        <v>3.39</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="L17" t="n">
-        <v>2.09</v>
+        <v>1.21</v>
       </c>
       <c r="M17" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2340,13 +2340,13 @@
         <v>105</v>
       </c>
       <c r="D18" t="n">
-        <v>4.96</v>
+        <v>3.29</v>
       </c>
       <c r="E18" t="n">
-        <v>2.94</v>
+        <v>0.05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2358,16 +2358,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.67</v>
+        <v>1.69</v>
       </c>
       <c r="K18" t="n">
-        <v>1.46</v>
+        <v>0.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0.61</v>
+        <v>0.17</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.99</v>
+        <v>0.13</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2622,13 +2622,13 @@
         <v>111</v>
       </c>
       <c r="D24" t="n">
-        <v>3.82</v>
+        <v>2.5</v>
       </c>
       <c r="E24" t="n">
-        <v>2.36</v>
+        <v>0.35</v>
       </c>
       <c r="F24" t="n">
-        <v>0.89</v>
+        <v>0.01</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5.45</v>
+        <v>4.51</v>
       </c>
       <c r="K24" t="n">
-        <v>4.11</v>
+        <v>2.81</v>
       </c>
       <c r="L24" t="n">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="M24" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>114</v>
       </c>
       <c r="D27" t="n">
-        <v>3.44</v>
+        <v>1.87</v>
       </c>
       <c r="E27" t="n">
-        <v>2.09</v>
+        <v>0.29</v>
       </c>
       <c r="F27" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.24</v>
+        <v>4.42</v>
       </c>
       <c r="K27" t="n">
-        <v>4.49</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>2.83</v>
+        <v>0.87</v>
       </c>
       <c r="M27" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2828,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.52</v>
+        <v>2.71</v>
       </c>
       <c r="K28" t="n">
-        <v>2.22</v>
+        <v>1.28</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>0.52</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>117</v>
       </c>
       <c r="D29" t="n">
-        <v>2.19</v>
+        <v>1.4</v>
       </c>
       <c r="E29" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2875,16 +2875,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.19</v>
+        <v>0.95</v>
       </c>
       <c r="K29" t="n">
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="L29" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2904,16 +2904,16 @@
         <v>118</v>
       </c>
       <c r="D30" t="n">
-        <v>8.68</v>
+        <v>1.96</v>
       </c>
       <c r="E30" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="K30" t="n">
-        <v>1.43</v>
+        <v>0.64</v>
       </c>
       <c r="L30" t="n">
-        <v>0.89</v>
+        <v>0.25</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2951,13 +2951,13 @@
         <v>119</v>
       </c>
       <c r="D31" t="n">
-        <v>5.02</v>
+        <v>4.41</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>2.91</v>
       </c>
       <c r="F31" t="n">
-        <v>2.83</v>
+        <v>1.67</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2969,19 +2969,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.59</v>
+        <v>5.99</v>
       </c>
       <c r="K31" t="n">
-        <v>5.49</v>
+        <v>4.56</v>
       </c>
       <c r="L31" t="n">
-        <v>4.39</v>
+        <v>3.37</v>
       </c>
       <c r="M31" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3016,16 +3016,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.92</v>
+        <v>2.02</v>
       </c>
       <c r="K32" t="n">
-        <v>1.7</v>
+        <v>0.86</v>
       </c>
       <c r="L32" t="n">
-        <v>0.85</v>
+        <v>0.34</v>
       </c>
       <c r="M32" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3045,13 +3045,13 @@
         <v>121</v>
       </c>
       <c r="D33" t="n">
-        <v>9.33</v>
+        <v>2.61</v>
       </c>
       <c r="E33" t="n">
-        <v>7.11</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>4.52</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3063,16 +3063,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.45</v>
+        <v>1.74</v>
       </c>
       <c r="K33" t="n">
-        <v>1.37</v>
+        <v>0.66</v>
       </c>
       <c r="L33" t="n">
-        <v>0.67</v>
+        <v>0.29</v>
       </c>
       <c r="M33" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.47</v>
+        <v>1.69</v>
       </c>
       <c r="K34" t="n">
-        <v>1.31</v>
+        <v>0.68</v>
       </c>
       <c r="L34" t="n">
-        <v>0.71</v>
+        <v>0.21</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3139,13 +3139,13 @@
         <v>123</v>
       </c>
       <c r="D35" t="n">
-        <v>5.64</v>
+        <v>2.56</v>
       </c>
       <c r="E35" t="n">
-        <v>3.92</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3157,16 +3157,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.99</v>
+        <v>4.41</v>
       </c>
       <c r="K35" t="n">
-        <v>3.71</v>
+        <v>2.97</v>
       </c>
       <c r="L35" t="n">
-        <v>2.77</v>
+        <v>1.95</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         <v>124</v>
       </c>
       <c r="D36" t="n">
-        <v>2.11</v>
+        <v>1.32</v>
       </c>
       <c r="E36" t="n">
-        <v>0.92</v>
+        <v>0.17</v>
       </c>
       <c r="F36" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3204,16 +3204,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>4.41</v>
+        <v>3.79</v>
       </c>
       <c r="K36" t="n">
-        <v>3.28</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
-        <v>2.39</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3233,16 +3233,16 @@
         <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>4.65</v>
+        <v>4.25</v>
       </c>
       <c r="E37" t="n">
-        <v>3.92</v>
+        <v>3.18</v>
       </c>
       <c r="F37" t="n">
-        <v>3.16</v>
+        <v>2.32</v>
       </c>
       <c r="G37" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3251,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.22</v>
+        <v>3.66</v>
       </c>
       <c r="K37" t="n">
-        <v>3.18</v>
+        <v>2.36</v>
       </c>
       <c r="L37" t="n">
-        <v>2.31</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3298,19 +3298,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.82</v>
+        <v>3.05</v>
       </c>
       <c r="K38" t="n">
-        <v>2.51</v>
+        <v>1.54</v>
       </c>
       <c r="L38" t="n">
-        <v>1.61</v>
+        <v>0.79</v>
       </c>
       <c r="M38" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3327,13 +3327,13 @@
         <v>127</v>
       </c>
       <c r="D39" t="n">
-        <v>4.52</v>
+        <v>3.1</v>
       </c>
       <c r="E39" t="n">
-        <v>2.93</v>
+        <v>0.46</v>
       </c>
       <c r="F39" t="n">
-        <v>1.08</v>
+        <v>0.08</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3345,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>5.8</v>
+        <v>5.13</v>
       </c>
       <c r="K39" t="n">
-        <v>4.68</v>
+        <v>3.68</v>
       </c>
       <c r="L39" t="n">
-        <v>3.55</v>
+        <v>2.49</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>129</v>
       </c>
       <c r="D40" t="n">
-        <v>3.79</v>
+        <v>3.48</v>
       </c>
       <c r="E40" t="n">
-        <v>3.01</v>
+        <v>2.37</v>
       </c>
       <c r="F40" t="n">
-        <v>2.16</v>
+        <v>1.16</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="K40" t="n">
-        <v>0.76</v>
+        <v>0.38</v>
       </c>
       <c r="L40" t="n">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="M40" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         <v>130</v>
       </c>
       <c r="D41" t="n">
-        <v>2.79</v>
+        <v>2.21</v>
       </c>
       <c r="E41" t="n">
-        <v>1.48</v>
+        <v>0.34</v>
       </c>
       <c r="F41" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3439,16 +3439,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="K41" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="L41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3533,16 +3533,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.92</v>
+        <v>0.46</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>133</v>
       </c>
       <c r="D44" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="E44" t="n">
-        <v>2.61</v>
+        <v>2.18</v>
       </c>
       <c r="F44" t="n">
-        <v>1.85</v>
+        <v>1.15</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3580,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.22</v>
+        <v>0.75</v>
       </c>
       <c r="K44" t="n">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="L44" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M44" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -3609,13 +3609,13 @@
         <v>128</v>
       </c>
       <c r="D45" t="n">
-        <v>3.24</v>
+        <v>2.83</v>
       </c>
       <c r="E45" t="n">
-        <v>2.3</v>
+        <v>1.48</v>
       </c>
       <c r="F45" t="n">
-        <v>1.29</v>
+        <v>0.35</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="K45" t="n">
-        <v>0.94</v>
+        <v>0.45</v>
       </c>
       <c r="L45" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="M45" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -3656,16 +3656,16 @@
         <v>134</v>
       </c>
       <c r="D46" t="n">
-        <v>2.15</v>
+        <v>1.68</v>
       </c>
       <c r="E46" t="n">
-        <v>0.88</v>
+        <v>0.3</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3674,16 +3674,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.68</v>
+        <v>0.9</v>
       </c>
       <c r="K46" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>135</v>
       </c>
       <c r="D47" t="n">
-        <v>2.68</v>
+        <v>2.09</v>
       </c>
       <c r="E47" t="n">
-        <v>1.31</v>
+        <v>0.58</v>
       </c>
       <c r="F47" t="n">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="G47" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3721,16 +3721,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.01</v>
+        <v>1.39</v>
       </c>
       <c r="K47" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="L47" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="M47" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3768,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.74</v>
+        <v>0.59</v>
       </c>
       <c r="K48" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3815,16 +3815,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>6.98</v>
+        <v>0.75</v>
       </c>
       <c r="K49" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3862,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>0.63</v>
       </c>
       <c r="K50" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3891,13 +3891,13 @@
         <v>140</v>
       </c>
       <c r="D51" t="n">
-        <v>4.42</v>
+        <v>3.82</v>
       </c>
       <c r="E51" t="n">
-        <v>3.45</v>
+        <v>2.17</v>
       </c>
       <c r="F51" t="n">
-        <v>2.33</v>
+        <v>0.61</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -3909,19 +3909,19 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>6.82</v>
+        <v>5.1</v>
       </c>
       <c r="K51" t="n">
-        <v>5.21</v>
+        <v>3.02</v>
       </c>
       <c r="L51" t="n">
-        <v>3.68</v>
+        <v>1.77</v>
       </c>
       <c r="M51" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3956,19 +3956,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>6.71</v>
+        <v>3.33</v>
       </c>
       <c r="K52" t="n">
-        <v>4.62</v>
+        <v>1.08</v>
       </c>
       <c r="L52" t="n">
-        <v>2.4</v>
+        <v>0.48</v>
       </c>
       <c r="M52" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3985,37 +3985,37 @@
         <v>142</v>
       </c>
       <c r="D53" t="n">
-        <v>2.62</v>
+        <v>1.55</v>
       </c>
       <c r="E53" t="n">
-        <v>1.17</v>
+        <v>0.25</v>
       </c>
       <c r="F53" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
       <c r="G53" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.35</v>
+        <v>1.3</v>
       </c>
       <c r="K53" t="n">
-        <v>1.02</v>
+        <v>0.31</v>
       </c>
       <c r="L53" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="M53" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>6.19</v>
+        <v>2.55</v>
       </c>
       <c r="K54" t="n">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -4097,16 +4097,16 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.78</v>
+        <v>0.75</v>
       </c>
       <c r="K55" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>3.12</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -4285,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.59</v>
+        <v>0.19</v>
       </c>
       <c r="K59" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -4332,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="K60" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -4361,16 +4361,16 @@
         <v>150</v>
       </c>
       <c r="D61" t="n">
-        <v>2.49</v>
+        <v>2.02</v>
       </c>
       <c r="E61" t="n">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="F61" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4379,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.08</v>
+        <v>0.48</v>
       </c>
       <c r="K61" t="n">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
       <c r="L61" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.71</v>
+        <v>0.09</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4473,16 +4473,16 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.84</v>
+        <v>0.29</v>
       </c>
       <c r="K63" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.97</v>
+        <v>0.23</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -4567,16 +4567,16 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
       <c r="K65" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -4605,28 +4605,28 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.48</v>
+        <v>0.49</v>
       </c>
       <c r="K66" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="L66" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -4661,16 +4661,16 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.64</v>
+        <v>0.26</v>
       </c>
       <c r="K67" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4699,25 +4699,25 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.24</v>
+        <v>0.34</v>
       </c>
       <c r="K68" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4737,13 +4737,13 @@
         <v>158</v>
       </c>
       <c r="D69" t="n">
-        <v>2.48</v>
+        <v>1.2</v>
       </c>
       <c r="E69" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -4755,16 +4755,16 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.79</v>
+        <v>0.82</v>
       </c>
       <c r="K69" t="n">
-        <v>0.41</v>
+        <v>0.09</v>
       </c>
       <c r="L69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4802,16 +4802,16 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.79</v>
+        <v>0.28</v>
       </c>
       <c r="K70" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4831,13 +4831,13 @@
         <v>160</v>
       </c>
       <c r="D71" t="n">
-        <v>2.84</v>
+        <v>2.41</v>
       </c>
       <c r="E71" t="n">
-        <v>1.53</v>
+        <v>0.6</v>
       </c>
       <c r="F71" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -4849,16 +4849,16 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.36</v>
+        <v>0.82</v>
       </c>
       <c r="K71" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4943,16 +4943,16 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.82</v>
+        <v>0.24</v>
       </c>
       <c r="K73" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4990,16 +4990,16 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.32</v>
+        <v>0.81</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -5019,13 +5019,13 @@
         <v>163</v>
       </c>
       <c r="D75" t="n">
-        <v>3.19</v>
+        <v>2.61</v>
       </c>
       <c r="E75" t="n">
-        <v>1.69</v>
+        <v>0.52</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -5037,16 +5037,16 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.17</v>
+        <v>0.7</v>
       </c>
       <c r="K75" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="L75" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -5066,16 +5066,16 @@
         <v>165</v>
       </c>
       <c r="D76" t="n">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="E76" t="n">
-        <v>0.65</v>
+        <v>0.13</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5084,16 +5084,16 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.06</v>
+        <v>0.48</v>
       </c>
       <c r="K76" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -5113,16 +5113,16 @@
         <v>166</v>
       </c>
       <c r="D77" t="n">
-        <v>2.48</v>
+        <v>2.11</v>
       </c>
       <c r="E77" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="F77" t="n">
-        <v>0.74</v>
+        <v>0.15</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5131,16 +5131,16 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.4</v>
+        <v>0.96</v>
       </c>
       <c r="K77" t="n">
-        <v>0.55</v>
+        <v>0.19</v>
       </c>
       <c r="L77" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M77" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -5160,13 +5160,13 @@
         <v>167</v>
       </c>
       <c r="D78" t="n">
-        <v>3.18</v>
+        <v>2.86</v>
       </c>
       <c r="E78" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="F78" t="n">
-        <v>1.49</v>
+        <v>0.46</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -5178,16 +5178,16 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.28</v>
+        <v>0.88</v>
       </c>
       <c r="K78" t="n">
-        <v>0.47</v>
+        <v>0.17</v>
       </c>
       <c r="L78" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -5207,13 +5207,13 @@
         <v>168</v>
       </c>
       <c r="D79" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="E79" t="n">
-        <v>3.08</v>
+        <v>2.45</v>
       </c>
       <c r="F79" t="n">
-        <v>2.39</v>
+        <v>1.47</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -5225,16 +5225,16 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.6</v>
+        <v>1.17</v>
       </c>
       <c r="K79" t="n">
-        <v>0.78</v>
+        <v>0.44</v>
       </c>
       <c r="L79" t="n">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="M79" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -5254,16 +5254,16 @@
         <v>169</v>
       </c>
       <c r="D80" t="n">
-        <v>2.31</v>
+        <v>1.85</v>
       </c>
       <c r="E80" t="n">
-        <v>1.42</v>
+        <v>0.58</v>
       </c>
       <c r="F80" t="n">
-        <v>0.54</v>
+        <v>0.02</v>
       </c>
       <c r="G80" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5272,16 +5272,16 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.09</v>
+        <v>0.59</v>
       </c>
       <c r="K80" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -5301,16 +5301,16 @@
         <v>170</v>
       </c>
       <c r="D81" t="n">
-        <v>2.83</v>
+        <v>2.26</v>
       </c>
       <c r="E81" t="n">
-        <v>1.74</v>
+        <v>0.65</v>
       </c>
       <c r="F81" t="n">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
       <c r="G81" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5319,16 +5319,16 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="K81" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -5348,13 +5348,13 @@
         <v>171</v>
       </c>
       <c r="D82" t="n">
-        <v>2.66</v>
+        <v>2.16</v>
       </c>
       <c r="E82" t="n">
-        <v>1.66</v>
+        <v>0.68</v>
       </c>
       <c r="F82" t="n">
-        <v>0.61</v>
+        <v>0.08</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -5366,16 +5366,16 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.25</v>
+        <v>0.77</v>
       </c>
       <c r="K82" t="n">
-        <v>0.36</v>
+        <v>0.11</v>
       </c>
       <c r="L82" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="M82" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -5395,13 +5395,13 @@
         <v>172</v>
       </c>
       <c r="D83" t="n">
-        <v>3.53</v>
+        <v>3.3</v>
       </c>
       <c r="E83" t="n">
-        <v>3.06</v>
+        <v>2.55</v>
       </c>
       <c r="F83" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -5413,16 +5413,16 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.29</v>
+        <v>0.87</v>
       </c>
       <c r="K83" t="n">
-        <v>0.49</v>
+        <v>0.19</v>
       </c>
       <c r="L83" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="M83" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5442,10 +5442,10 @@
         <v>173</v>
       </c>
       <c r="D84" t="n">
-        <v>0.85</v>
+        <v>0.44</v>
       </c>
       <c r="E84" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -5460,16 +5460,16 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.19</v>
+        <v>0.42</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5489,13 +5489,13 @@
         <v>174</v>
       </c>
       <c r="D85" t="n">
-        <v>3.73</v>
+        <v>3.37</v>
       </c>
       <c r="E85" t="n">
-        <v>2.78</v>
+        <v>2.01</v>
       </c>
       <c r="F85" t="n">
-        <v>1.69</v>
+        <v>0.61</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -5507,16 +5507,16 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.91</v>
+        <v>0.41</v>
       </c>
       <c r="K85" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="L85" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -5536,13 +5536,13 @@
         <v>175</v>
       </c>
       <c r="D86" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="E86" t="n">
-        <v>1.22</v>
+        <v>0.5</v>
       </c>
       <c r="F86" t="n">
-        <v>0.42</v>
+        <v>0.02</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -5554,16 +5554,16 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.02</v>
+        <v>0.6</v>
       </c>
       <c r="K86" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="L86" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -5583,16 +5583,16 @@
         <v>176</v>
       </c>
       <c r="D87" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="E87" t="n">
-        <v>3.2</v>
+        <v>2.57</v>
       </c>
       <c r="F87" t="n">
-        <v>2.57</v>
+        <v>1.55</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5601,16 +5601,16 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="K87" t="n">
-        <v>1.31</v>
+        <v>0.77</v>
       </c>
       <c r="L87" t="n">
-        <v>0.75</v>
+        <v>0.23</v>
       </c>
       <c r="M87" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -5630,16 +5630,16 @@
         <v>177</v>
       </c>
       <c r="D88" t="n">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="E88" t="n">
-        <v>1.85</v>
+        <v>1.13</v>
       </c>
       <c r="F88" t="n">
-        <v>0.93</v>
+        <v>0.16</v>
       </c>
       <c r="G88" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5648,16 +5648,16 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.17</v>
+        <v>0.79</v>
       </c>
       <c r="K88" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -5695,16 +5695,16 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.96</v>
+        <v>0.36</v>
       </c>
       <c r="K89" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -5724,16 +5724,16 @@
         <v>179</v>
       </c>
       <c r="D90" t="n">
-        <v>2.41</v>
+        <v>2.02</v>
       </c>
       <c r="E90" t="n">
-        <v>1.42</v>
+        <v>0.9</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8</v>
+        <v>0.29</v>
       </c>
       <c r="G90" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5742,16 +5742,16 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.1</v>
+        <v>0.68</v>
       </c>
       <c r="K90" t="n">
-        <v>0.35</v>
+        <v>0.11</v>
       </c>
       <c r="L90" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="M90" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5789,19 +5789,19 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.11</v>
+        <v>1.04</v>
       </c>
       <c r="K91" t="n">
-        <v>0.6</v>
+        <v>0.04</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5836,16 +5836,16 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.93</v>
+        <v>0.91</v>
       </c>
       <c r="K92" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -5883,16 +5883,16 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>10.66</v>
+        <v>2.2</v>
       </c>
       <c r="K93" t="n">
-        <v>4.83</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5912,37 +5912,37 @@
         <v>184</v>
       </c>
       <c r="D94" t="n">
-        <v>2.94</v>
+        <v>2.01</v>
       </c>
       <c r="E94" t="n">
-        <v>1.47</v>
+        <v>0.3</v>
       </c>
       <c r="F94" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.89</v>
+        <v>1.92</v>
       </c>
       <c r="K94" t="n">
-        <v>1.42</v>
+        <v>0.53</v>
       </c>
       <c r="L94" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
       <c r="M94" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -5977,16 +5977,16 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.46</v>
+        <v>0.45</v>
       </c>
       <c r="K95" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -6015,28 +6015,28 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>6.19</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>4.5</v>
+        <v>3.48</v>
       </c>
       <c r="K96" t="n">
-        <v>2.79</v>
+        <v>1.54</v>
       </c>
       <c r="L96" t="n">
-        <v>1.45</v>
+        <v>0.3</v>
       </c>
       <c r="M96" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -6053,13 +6053,13 @@
         <v>187</v>
       </c>
       <c r="D97" t="n">
-        <v>3.61</v>
+        <v>3.1</v>
       </c>
       <c r="E97" t="n">
-        <v>2.53</v>
+        <v>1.43</v>
       </c>
       <c r="F97" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -6071,16 +6071,16 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.5</v>
+        <v>0.94</v>
       </c>
       <c r="K97" t="n">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.7</v>
+        <v>0.63</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>189</v>
       </c>
       <c r="D99" t="n">
-        <v>1.53</v>
+        <v>0.35</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6165,16 +6165,16 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.49</v>
+        <v>0.67</v>
       </c>
       <c r="K99" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -6194,37 +6194,37 @@
         <v>190</v>
       </c>
       <c r="D100" t="n">
-        <v>2.62</v>
+        <v>1.21</v>
       </c>
       <c r="E100" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>3.95</v>
+        <v>2.17</v>
       </c>
       <c r="K100" t="n">
-        <v>1.69</v>
+        <v>0.13</v>
       </c>
       <c r="L100" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="M100" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -6241,40 +6241,40 @@
         <v>191</v>
       </c>
       <c r="D101" t="n">
-        <v>3.93</v>
+        <v>3.14</v>
       </c>
       <c r="E101" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="F101" t="n">
-        <v>1.09</v>
+        <v>0.02</v>
       </c>
       <c r="G101" t="n">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>4.05</v>
+        <v>3.26</v>
       </c>
       <c r="K101" t="n">
-        <v>2.56</v>
+        <v>1.44</v>
       </c>
       <c r="L101" t="n">
-        <v>1.35</v>
+        <v>0.38</v>
       </c>
       <c r="M101" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -6306,16 +6306,16 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.71</v>
+        <v>0.74</v>
       </c>
       <c r="K102" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -6335,13 +6335,13 @@
         <v>194</v>
       </c>
       <c r="D103" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="E103" t="n">
-        <v>1.39</v>
+        <v>0.57</v>
       </c>
       <c r="F103" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -6353,16 +6353,16 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.08</v>
+        <v>0.63</v>
       </c>
       <c r="K103" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="L103" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.3</v>
+        <v>0.37</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.35</v>
+        <v>0.47</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
@@ -6476,13 +6476,13 @@
         <v>197</v>
       </c>
       <c r="D106" t="n">
-        <v>2.99</v>
+        <v>2.67</v>
       </c>
       <c r="E106" t="n">
-        <v>2.08</v>
+        <v>1.38</v>
       </c>
       <c r="F106" t="n">
-        <v>1.04</v>
+        <v>0.22</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -6494,16 +6494,16 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0.88</v>
+        <v>0.42</v>
       </c>
       <c r="K106" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="L106" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -6523,13 +6523,13 @@
         <v>198</v>
       </c>
       <c r="D107" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="E107" t="n">
-        <v>1.63</v>
+        <v>0.58</v>
       </c>
       <c r="F107" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -6541,16 +6541,16 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.28</v>
+        <v>0.66</v>
       </c>
       <c r="K107" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="L107" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>199</v>
       </c>
       <c r="D108" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="E108" t="n">
-        <v>1.47</v>
+        <v>0.81</v>
       </c>
       <c r="F108" t="n">
-        <v>0.62</v>
+        <v>0.03</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -6588,16 +6588,16 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.04</v>
+        <v>0.64</v>
       </c>
       <c r="K108" t="n">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="L108" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -6682,16 +6682,16 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -6711,10 +6711,10 @@
         <v>202</v>
       </c>
       <c r="D111" t="n">
-        <v>2.81</v>
+        <v>2.3</v>
       </c>
       <c r="E111" t="n">
-        <v>1.39</v>
+        <v>0.29</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.19</v>
+        <v>0.65</v>
       </c>
       <c r="K111" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -6776,16 +6776,16 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>5.44</v>
+        <v>0.6</v>
       </c>
       <c r="K112" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
@@ -6805,16 +6805,16 @@
         <v>204</v>
       </c>
       <c r="D113" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="E113" t="n">
-        <v>0.75</v>
+        <v>0.32</v>
       </c>
       <c r="F113" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="G113" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -6823,16 +6823,16 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1.11</v>
+        <v>0.68</v>
       </c>
       <c r="K113" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="L113" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -6852,13 +6852,13 @@
         <v>205</v>
       </c>
       <c r="D114" t="n">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="E114" t="n">
-        <v>0.79</v>
+        <v>0.13</v>
       </c>
       <c r="F114" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -6870,16 +6870,16 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.39</v>
+        <v>0.81</v>
       </c>
       <c r="K114" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="L114" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -6899,13 +6899,13 @@
         <v>207</v>
       </c>
       <c r="D115" t="n">
-        <v>2.93</v>
+        <v>2.49</v>
       </c>
       <c r="E115" t="n">
-        <v>1.78</v>
+        <v>0.82</v>
       </c>
       <c r="F115" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -6917,16 +6917,16 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.09</v>
+        <v>0.66</v>
       </c>
       <c r="K115" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="L115" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
@@ -6946,37 +6946,37 @@
         <v>208</v>
       </c>
       <c r="D116" t="n">
-        <v>6.53</v>
+        <v>0.78</v>
       </c>
       <c r="E116" t="n">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>5.46</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>3.98</v>
+        <v>1.51</v>
       </c>
       <c r="K116" t="n">
-        <v>1.43</v>
+        <v>0.01</v>
       </c>
       <c r="L116" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -6993,13 +6993,13 @@
         <v>209</v>
       </c>
       <c r="D117" t="n">
-        <v>2.46</v>
+        <v>2.05</v>
       </c>
       <c r="E117" t="n">
-        <v>1.23</v>
+        <v>0.59</v>
       </c>
       <c r="F117" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -7011,16 +7011,16 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K117" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -7040,16 +7040,16 @@
         <v>210</v>
       </c>
       <c r="D118" t="n">
-        <v>2.26</v>
+        <v>1.7</v>
       </c>
       <c r="E118" t="n">
-        <v>0.98</v>
+        <v>0.32</v>
       </c>
       <c r="F118" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7058,16 +7058,16 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.17</v>
+        <v>0.69</v>
       </c>
       <c r="K118" t="n">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="L118" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -7087,13 +7087,13 @@
         <v>211</v>
       </c>
       <c r="D119" t="n">
-        <v>2.3</v>
+        <v>1.71</v>
       </c>
       <c r="E119" t="n">
-        <v>1.17</v>
+        <v>0.26</v>
       </c>
       <c r="F119" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -7105,16 +7105,16 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.05</v>
+        <v>0.58</v>
       </c>
       <c r="K119" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="L119" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -7152,22 +7152,22 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2.58</v>
+        <v>1.31</v>
       </c>
       <c r="K120" t="n">
-        <v>1.05</v>
+        <v>0.17</v>
       </c>
       <c r="L120" t="n">
-        <v>0.26</v>
+        <v>0.01</v>
       </c>
       <c r="M120" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -7181,13 +7181,13 @@
         <v>213</v>
       </c>
       <c r="D121" t="n">
-        <v>3.56</v>
+        <v>3.15</v>
       </c>
       <c r="E121" t="n">
-        <v>2.74</v>
+        <v>1.87</v>
       </c>
       <c r="F121" t="n">
-        <v>1.8</v>
+        <v>0.68</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -7199,16 +7199,16 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.27</v>
+        <v>1.78</v>
       </c>
       <c r="K121" t="n">
-        <v>1.29</v>
+        <v>0.64</v>
       </c>
       <c r="L121" t="n">
-        <v>0.59</v>
+        <v>0.16</v>
       </c>
       <c r="M121" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -7228,37 +7228,37 @@
         <v>214</v>
       </c>
       <c r="D122" t="n">
-        <v>3.82</v>
+        <v>0.89</v>
       </c>
       <c r="E122" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.32</v>
+        <v>0.7</v>
       </c>
       <c r="K122" t="n">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -7275,16 +7275,16 @@
         <v>215</v>
       </c>
       <c r="D123" t="n">
-        <v>1.84</v>
+        <v>1.34</v>
       </c>
       <c r="E123" t="n">
-        <v>0.88</v>
+        <v>0.35</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="G123" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7293,16 +7293,16 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.16</v>
+        <v>0.65</v>
       </c>
       <c r="K123" t="n">
-        <v>0.24</v>
+        <v>0.03</v>
       </c>
       <c r="L123" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -7322,13 +7322,13 @@
         <v>216</v>
       </c>
       <c r="D124" t="n">
-        <v>3.65</v>
+        <v>3.22</v>
       </c>
       <c r="E124" t="n">
-        <v>2.72</v>
+        <v>1.81</v>
       </c>
       <c r="F124" t="n">
-        <v>1.64</v>
+        <v>0.31</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -7340,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="K124" t="n">
-        <v>0.52</v>
+        <v>0.17</v>
       </c>
       <c r="L124" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -7369,16 +7369,16 @@
         <v>217</v>
       </c>
       <c r="D125" t="n">
-        <v>2.06</v>
+        <v>0.98</v>
       </c>
       <c r="E125" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7387,16 +7387,16 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.48</v>
+        <v>0.94</v>
       </c>
       <c r="K125" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -7416,16 +7416,16 @@
         <v>218</v>
       </c>
       <c r="D126" t="n">
-        <v>2.13</v>
+        <v>1.52</v>
       </c>
       <c r="E126" t="n">
-        <v>0.64</v>
+        <v>0.23</v>
       </c>
       <c r="F126" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7434,16 +7434,16 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.38</v>
+        <v>0.84</v>
       </c>
       <c r="K126" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="L126" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
@@ -7463,13 +7463,13 @@
         <v>219</v>
       </c>
       <c r="D127" t="n">
-        <v>5.41</v>
+        <v>0.17</v>
       </c>
       <c r="E127" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -7481,19 +7481,19 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.73</v>
+        <v>0.71</v>
       </c>
       <c r="K127" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -7510,16 +7510,16 @@
         <v>220</v>
       </c>
       <c r="D128" t="n">
-        <v>3.83</v>
+        <v>3.45</v>
       </c>
       <c r="E128" t="n">
-        <v>3.14</v>
+        <v>2.33</v>
       </c>
       <c r="F128" t="n">
-        <v>2.34</v>
+        <v>1.07</v>
       </c>
       <c r="G128" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -7528,16 +7528,16 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.25</v>
+        <v>0.82</v>
       </c>
       <c r="K128" t="n">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="L128" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="M128" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -7557,10 +7557,10 @@
         <v>221</v>
       </c>
       <c r="D129" t="n">
-        <v>2.62</v>
+        <v>1.66</v>
       </c>
       <c r="E129" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -7575,19 +7575,19 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.52</v>
+        <v>0.72</v>
       </c>
       <c r="K129" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="L129" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
         <v>0</v>
@@ -7604,37 +7604,37 @@
         <v>222</v>
       </c>
       <c r="D130" t="n">
-        <v>6.09</v>
+        <v>1.23</v>
       </c>
       <c r="E130" t="n">
-        <v>3.84</v>
+        <v>0.06</v>
       </c>
       <c r="F130" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>6.54</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.26</v>
+        <v>0.54</v>
       </c>
       <c r="K130" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O130" t="n">
         <v>0</v>
